--- a/data/trans_orig/IP07C23_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP07C23_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B7E44A46-CC35-40E1-8713-F74C59E94210}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{15B18A02-D1CA-4FC1-A1AF-28328412B4E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{EB3BE6C9-3748-4FA9-B3B8-7B3B9C7AF586}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{6CF8AB40-8F53-4E49-9C50-AB42C2DC1D0A}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -68,27 +68,174 @@
     <t>0/4</t>
   </si>
   <si>
+    <t>Nunca</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>Casi nunca</t>
+  </si>
+  <si>
     <t>Algunas veces</t>
   </si>
   <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>Casi nunca</t>
-  </si>
-  <si>
     <t>Casi siempre</t>
   </si>
   <si>
-    <t>Nunca</t>
-  </si>
-  <si>
     <t>Siempre</t>
   </si>
   <si>
+    <t>5/9</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>10,91%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>18,71%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>23,97%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>39,04%</t>
+  </si>
+  <si>
+    <t>46,08%</t>
+  </si>
+  <si>
+    <t>31,4%</t>
+  </si>
+  <si>
+    <t>62,47%</t>
+  </si>
+  <si>
+    <t>33,94%</t>
+  </si>
+  <si>
+    <t>24,51%</t>
+  </si>
+  <si>
+    <t>45,1%</t>
+  </si>
+  <si>
+    <t>70,7%</t>
+  </si>
+  <si>
+    <t>56,47%</t>
+  </si>
+  <si>
+    <t>83,84%</t>
+  </si>
+  <si>
+    <t>49,51%</t>
+  </si>
+  <si>
+    <t>34,14%</t>
+  </si>
+  <si>
+    <t>64,82%</t>
+  </si>
+  <si>
+    <t>61,14%</t>
+  </si>
+  <si>
+    <t>49,92%</t>
+  </si>
+  <si>
+    <t>71,56%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
     <t>10/15</t>
   </si>
   <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
     <t>4,75%</t>
   </si>
   <si>
@@ -116,21 +263,6 @@
     <t>6,49%</t>
   </si>
   <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
     <t>30,41%</t>
   </si>
   <si>
@@ -158,30 +290,6 @@
     <t>37,22%</t>
   </si>
   <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
     <t>62,89%</t>
   </si>
   <si>
@@ -209,112 +317,37 @@
     <t>68,49%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>18,71%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>23,97%</t>
-  </si>
-  <si>
-    <t>12,62%</t>
-  </si>
-  <si>
-    <t>39,04%</t>
-  </si>
-  <si>
-    <t>46,08%</t>
-  </si>
-  <si>
-    <t>31,4%</t>
-  </si>
-  <si>
-    <t>62,47%</t>
-  </si>
-  <si>
-    <t>33,94%</t>
-  </si>
-  <si>
-    <t>24,51%</t>
-  </si>
-  <si>
-    <t>45,1%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>70,7%</t>
-  </si>
-  <si>
-    <t>56,47%</t>
-  </si>
-  <si>
-    <t>83,84%</t>
-  </si>
-  <si>
-    <t>49,51%</t>
-  </si>
-  <si>
-    <t>34,14%</t>
-  </si>
-  <si>
-    <t>64,82%</t>
-  </si>
-  <si>
-    <t>61,14%</t>
-  </si>
-  <si>
-    <t>49,92%</t>
-  </si>
-  <si>
-    <t>71,56%</t>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
   </si>
   <si>
     <t>4,4%</t>
@@ -341,18 +374,6 @@
     <t>5,99%</t>
   </si>
   <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
     <t>29,41%</t>
   </si>
   <si>
@@ -378,27 +399,6 @@
   </si>
   <si>
     <t>36,99%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
   </si>
   <si>
     <t>64,1%</t>
@@ -817,7 +817,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5A94D68-877A-4482-BD26-B8C6F6C7E2BE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{646FC8AD-E715-495A-895D-DBCE61F897EA}">
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1207,10 +1207,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="D10" s="7">
-        <v>10705</v>
+        <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>17</v>
@@ -1222,34 +1222,34 @@
         <v>19</v>
       </c>
       <c r="H10" s="7">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="I10" s="7">
-        <v>5973</v>
+        <v>443</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>20</v>
       </c>
       <c r="K10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="L10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>1</v>
+      </c>
+      <c r="N10" s="7">
+        <v>443</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="M10" s="7">
-        <v>20</v>
-      </c>
-      <c r="N10" s="7">
-        <v>16678</v>
-      </c>
-      <c r="O10" s="7" t="s">
+      <c r="P10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>23</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1258,49 +1258,49 @@
         <v>12</v>
       </c>
       <c r="C11" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D11" s="7">
-        <v>0</v>
+        <v>1182</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H11" s="7">
+        <v>0</v>
+      </c>
+      <c r="I11" s="7">
+        <v>0</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="M11" s="7">
+        <v>2</v>
+      </c>
+      <c r="N11" s="7">
+        <v>1182</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="P11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>28</v>
-      </c>
-      <c r="H11" s="7">
-        <v>0</v>
-      </c>
-      <c r="I11" s="7">
-        <v>0</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="M11" s="7">
-        <v>0</v>
-      </c>
-      <c r="N11" s="7">
-        <v>0</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1309,49 +1309,49 @@
         <v>13</v>
       </c>
       <c r="C12" s="7">
-        <v>75</v>
+        <v>1</v>
       </c>
       <c r="D12" s="7">
-        <v>68501</v>
+        <v>1026</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="7">
+        <v>1</v>
+      </c>
+      <c r="I12" s="7">
+        <v>1056</v>
+      </c>
+      <c r="J12" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="K12" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="M12" s="7">
+        <v>2</v>
+      </c>
+      <c r="N12" s="7">
+        <v>2081</v>
+      </c>
+      <c r="O12" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="H12" s="7">
-        <v>61</v>
-      </c>
-      <c r="I12" s="7">
-        <v>54651</v>
-      </c>
-      <c r="J12" s="7" t="s">
+      <c r="P12" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>34</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="M12" s="7">
-        <v>136</v>
-      </c>
-      <c r="N12" s="7">
-        <v>123153</v>
-      </c>
-      <c r="O12" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1360,49 +1360,49 @@
         <v>14</v>
       </c>
       <c r="C13" s="7">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D13" s="7">
-        <v>4382</v>
+        <v>9917</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="H13" s="7">
+        <v>19</v>
+      </c>
+      <c r="I13" s="7">
+        <v>15668</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="M13" s="7">
+        <v>29</v>
+      </c>
+      <c r="N13" s="7">
+        <v>25585</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="P13" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="H13" s="7">
-        <v>1</v>
-      </c>
-      <c r="I13" s="7">
-        <v>476</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>43</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="M13" s="7">
-        <v>6</v>
-      </c>
-      <c r="N13" s="7">
-        <v>4858</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1411,49 +1411,49 @@
         <v>15</v>
       </c>
       <c r="C14" s="7">
-        <v>166</v>
+        <v>36</v>
       </c>
       <c r="D14" s="7">
-        <v>141637</v>
+        <v>29252</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" s="7">
+        <v>24</v>
+      </c>
+      <c r="I14" s="7">
+        <v>16834</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>60</v>
+      </c>
+      <c r="N14" s="7">
+        <v>46086</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="H14" s="7">
-        <v>154</v>
-      </c>
-      <c r="I14" s="7">
-        <v>107444</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="M14" s="7">
-        <v>320</v>
-      </c>
-      <c r="N14" s="7">
-        <v>249081</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1462,102 +1462,102 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>257</v>
+        <v>49</v>
       </c>
       <c r="D15" s="7">
-        <v>225226</v>
+        <v>41376</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H15" s="7">
-        <v>225</v>
+        <v>45</v>
       </c>
       <c r="I15" s="7">
-        <v>168545</v>
+        <v>34001</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="M15" s="7">
-        <v>482</v>
+        <v>94</v>
       </c>
       <c r="N15" s="7">
-        <v>393770</v>
+        <v>75377</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D16" s="7">
-        <v>1026</v>
+        <v>4382</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>26</v>
+        <v>56</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
       </c>
       <c r="I16" s="7">
-        <v>1056</v>
+        <v>476</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="M16" s="7">
+        <v>6</v>
+      </c>
+      <c r="N16" s="7">
+        <v>4858</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="K16" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="L16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="M16" s="7">
-        <v>2</v>
-      </c>
-      <c r="N16" s="7">
-        <v>2081</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1566,49 +1566,49 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D17" s="7">
-        <v>1182</v>
+        <v>0</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H17" s="7">
+        <v>0</v>
+      </c>
+      <c r="I17" s="7">
+        <v>0</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="M17" s="7">
+        <v>0</v>
+      </c>
+      <c r="N17" s="7">
+        <v>0</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="H17" s="7">
-        <v>0</v>
-      </c>
-      <c r="I17" s="7">
-        <v>0</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="M17" s="7">
-        <v>2</v>
-      </c>
-      <c r="N17" s="7">
-        <v>1182</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1617,49 +1617,49 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D18" s="7">
-        <v>9917</v>
+        <v>10705</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="H18" s="7">
+        <v>9</v>
+      </c>
+      <c r="I18" s="7">
+        <v>5973</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="G18" s="7" t="s">
+      <c r="M18" s="7">
+        <v>20</v>
+      </c>
+      <c r="N18" s="7">
+        <v>16678</v>
+      </c>
+      <c r="O18" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="H18" s="7">
-        <v>19</v>
-      </c>
-      <c r="I18" s="7">
-        <v>15668</v>
-      </c>
-      <c r="J18" s="7" t="s">
+      <c r="P18" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="M18" s="7">
-        <v>29</v>
-      </c>
-      <c r="N18" s="7">
-        <v>25585</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1668,46 +1668,46 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="D19" s="7">
-        <v>0</v>
+        <v>68501</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>26</v>
+        <v>75</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>27</v>
+        <v>76</v>
       </c>
       <c r="G19" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="H19" s="7">
+        <v>61</v>
+      </c>
+      <c r="I19" s="7">
+        <v>54651</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="H19" s="7">
-        <v>1</v>
-      </c>
-      <c r="I19" s="7">
-        <v>443</v>
-      </c>
-      <c r="J19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="K19" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="L19" s="7" t="s">
+      <c r="M19" s="7">
+        <v>136</v>
+      </c>
+      <c r="N19" s="7">
+        <v>123153</v>
+      </c>
+      <c r="O19" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="M19" s="7">
-        <v>1</v>
-      </c>
-      <c r="N19" s="7">
-        <v>443</v>
-      </c>
-      <c r="O19" s="7" t="s">
+      <c r="P19" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>26</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>83</v>
@@ -1719,10 +1719,10 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>36</v>
+        <v>166</v>
       </c>
       <c r="D20" s="7">
-        <v>29252</v>
+        <v>141637</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>84</v>
@@ -1734,10 +1734,10 @@
         <v>86</v>
       </c>
       <c r="H20" s="7">
-        <v>24</v>
+        <v>154</v>
       </c>
       <c r="I20" s="7">
-        <v>16834</v>
+        <v>107444</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>87</v>
@@ -1749,10 +1749,10 @@
         <v>89</v>
       </c>
       <c r="M20" s="7">
-        <v>60</v>
+        <v>320</v>
       </c>
       <c r="N20" s="7">
-        <v>46086</v>
+        <v>249081</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>90</v>
@@ -1770,49 +1770,49 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>49</v>
+        <v>257</v>
       </c>
       <c r="D21" s="7">
-        <v>41376</v>
+        <v>225226</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H21" s="7">
-        <v>45</v>
+        <v>225</v>
       </c>
       <c r="I21" s="7">
-        <v>34001</v>
+        <v>168545</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="M21" s="7">
-        <v>94</v>
+        <v>482</v>
       </c>
       <c r="N21" s="7">
-        <v>75377</v>
+        <v>393770</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -1823,49 +1823,49 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D22" s="7">
-        <v>11731</v>
+        <v>4382</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>93</v>
       </c>
       <c r="F22" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="H22" s="7">
+        <v>2</v>
+      </c>
+      <c r="I22" s="7">
+        <v>920</v>
+      </c>
+      <c r="J22" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="H22" s="7">
-        <v>10</v>
-      </c>
-      <c r="I22" s="7">
-        <v>7029</v>
-      </c>
-      <c r="J22" s="7" t="s">
+      <c r="K22" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="K22" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="L22" s="7" t="s">
+      <c r="M22" s="7">
+        <v>7</v>
+      </c>
+      <c r="N22" s="7">
+        <v>5302</v>
+      </c>
+      <c r="O22" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="M22" s="7">
-        <v>22</v>
-      </c>
-      <c r="N22" s="7">
-        <v>18760</v>
-      </c>
-      <c r="O22" s="7" t="s">
+      <c r="P22" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -1880,28 +1880,28 @@
         <v>1182</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H23" s="7">
+        <v>0</v>
+      </c>
+      <c r="I23" s="7">
+        <v>0</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="H23" s="7">
-        <v>0</v>
-      </c>
-      <c r="I23" s="7">
-        <v>0</v>
-      </c>
-      <c r="J23" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="M23" s="7">
         <v>2</v>
@@ -1910,13 +1910,13 @@
         <v>1182</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -1925,49 +1925,49 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
-        <v>85</v>
+        <v>12</v>
       </c>
       <c r="D24" s="7">
-        <v>78418</v>
+        <v>11731</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="G24" s="7" t="s">
+      <c r="H24" s="7">
+        <v>10</v>
+      </c>
+      <c r="I24" s="7">
+        <v>7029</v>
+      </c>
+      <c r="J24" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="H24" s="7">
-        <v>80</v>
-      </c>
-      <c r="I24" s="7">
-        <v>70319</v>
-      </c>
-      <c r="J24" s="7" t="s">
+      <c r="K24" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="M24" s="7">
+        <v>22</v>
+      </c>
+      <c r="N24" s="7">
+        <v>18760</v>
+      </c>
+      <c r="O24" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="L24" s="7" t="s">
+      <c r="P24" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="M24" s="7">
-        <v>165</v>
-      </c>
-      <c r="N24" s="7">
-        <v>148737</v>
-      </c>
-      <c r="O24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -1976,40 +1976,40 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>5</v>
+        <v>85</v>
       </c>
       <c r="D25" s="7">
-        <v>4382</v>
+        <v>78418</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="F25" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="G25" s="7" t="s">
+      <c r="H25" s="7">
+        <v>80</v>
+      </c>
+      <c r="I25" s="7">
+        <v>70319</v>
+      </c>
+      <c r="J25" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="H25" s="7">
-        <v>2</v>
-      </c>
-      <c r="I25" s="7">
-        <v>920</v>
-      </c>
-      <c r="J25" s="7" t="s">
+      <c r="K25" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>26</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>117</v>
       </c>
       <c r="M25" s="7">
-        <v>7</v>
+        <v>165</v>
       </c>
       <c r="N25" s="7">
-        <v>5302</v>
+        <v>148737</v>
       </c>
       <c r="O25" s="7" t="s">
         <v>118</v>
@@ -2084,13 +2084,13 @@
         <v>266601</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H27" s="7">
         <v>270</v>
@@ -2099,13 +2099,13 @@
         <v>202546</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="M27" s="7">
         <v>576</v>
@@ -2114,13 +2114,13 @@
         <v>469147</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP07C23_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP07C23_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{15B18A02-D1CA-4FC1-A1AF-28328412B4E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{21C81DCA-8E09-400D-ABAD-74679251C056}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{6CF8AB40-8F53-4E49-9C50-AB42C2DC1D0A}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{C1E60E57-C3C4-4E58-A882-4D38EF8DC4FF}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="138">
   <si>
     <t>Menores según frecuencia de trato justo por parte de tus padres en 2023 (Tasa respuesta: 30,0%)</t>
   </si>
@@ -65,268 +65,379 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>0/4</t>
+    <t>0-2</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>Casi siempre</t>
+  </si>
+  <si>
+    <t>Algunas veces</t>
+  </si>
+  <si>
+    <t>Casi nunca</t>
   </si>
   <si>
     <t>Nunca</t>
   </si>
   <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>Casi nunca</t>
-  </si>
-  <si>
-    <t>Algunas veces</t>
-  </si>
-  <si>
-    <t>Casi siempre</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>5/9</t>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>66,75%</t>
+  </si>
+  <si>
+    <t>58,02%</t>
+  </si>
+  <si>
+    <t>74,95%</t>
+  </si>
+  <si>
+    <t>58,8%</t>
+  </si>
+  <si>
+    <t>48,38%</t>
+  </si>
+  <si>
+    <t>68,61%</t>
+  </si>
+  <si>
+    <t>63,42%</t>
+  </si>
+  <si>
+    <t>56,77%</t>
+  </si>
+  <si>
+    <t>70,12%</t>
+  </si>
+  <si>
+    <t>28,82%</t>
+  </si>
+  <si>
+    <t>20,57%</t>
+  </si>
+  <si>
+    <t>37,07%</t>
+  </si>
+  <si>
+    <t>36,26%</t>
+  </si>
+  <si>
+    <t>26,59%</t>
+  </si>
+  <si>
+    <t>46,76%</t>
+  </si>
+  <si>
+    <t>31,94%</t>
+  </si>
+  <si>
+    <t>25,4%</t>
+  </si>
+  <si>
+    <t>39,07%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
   </si>
   <si>
     <t>0,0%</t>
   </si>
   <si>
+    <t>4,07%</t>
+  </si>
+  <si>
     <t>0%</t>
   </si>
   <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>18,71%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>23,97%</t>
-  </si>
-  <si>
-    <t>12,62%</t>
-  </si>
-  <si>
-    <t>39,04%</t>
-  </si>
-  <si>
-    <t>46,08%</t>
-  </si>
-  <si>
-    <t>31,4%</t>
-  </si>
-  <si>
-    <t>62,47%</t>
-  </si>
-  <si>
-    <t>33,94%</t>
-  </si>
-  <si>
-    <t>24,51%</t>
-  </si>
-  <si>
-    <t>45,1%</t>
-  </si>
-  <si>
-    <t>70,7%</t>
-  </si>
-  <si>
-    <t>56,47%</t>
-  </si>
-  <si>
-    <t>83,84%</t>
-  </si>
-  <si>
-    <t>49,51%</t>
-  </si>
-  <si>
-    <t>34,14%</t>
-  </si>
-  <si>
-    <t>64,82%</t>
-  </si>
-  <si>
-    <t>61,14%</t>
-  </si>
-  <si>
-    <t>49,92%</t>
-  </si>
-  <si>
-    <t>71,56%</t>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>10/15</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>30,41%</t>
-  </si>
-  <si>
-    <t>24,3%</t>
-  </si>
-  <si>
-    <t>37,33%</t>
-  </si>
-  <si>
-    <t>32,43%</t>
-  </si>
-  <si>
-    <t>25,42%</t>
-  </si>
-  <si>
-    <t>44,78%</t>
-  </si>
-  <si>
-    <t>31,28%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>37,22%</t>
-  </si>
-  <si>
-    <t>62,89%</t>
-  </si>
-  <si>
-    <t>55,82%</t>
-  </si>
-  <si>
-    <t>69,53%</t>
-  </si>
-  <si>
-    <t>63,75%</t>
-  </si>
-  <si>
-    <t>52,86%</t>
-  </si>
-  <si>
-    <t>70,77%</t>
-  </si>
-  <si>
-    <t>63,26%</t>
-  </si>
-  <si>
-    <t>57,07%</t>
-  </si>
-  <si>
-    <t>68,49%</t>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>62,52%</t>
+  </si>
+  <si>
+    <t>54,53%</t>
+  </si>
+  <si>
+    <t>70,34%</t>
+  </si>
+  <si>
+    <t>62,76%</t>
+  </si>
+  <si>
+    <t>50,75%</t>
+  </si>
+  <si>
+    <t>71,53%</t>
+  </si>
+  <si>
+    <t>62,63%</t>
+  </si>
+  <si>
+    <t>55,67%</t>
+  </si>
+  <si>
+    <t>68,81%</t>
+  </si>
+  <si>
+    <t>29,77%</t>
+  </si>
+  <si>
+    <t>23,0%</t>
+  </si>
+  <si>
+    <t>37,47%</t>
+  </si>
+  <si>
+    <t>33,88%</t>
+  </si>
+  <si>
+    <t>25,03%</t>
+  </si>
+  <si>
+    <t>46,45%</t>
+  </si>
+  <si>
+    <t>31,57%</t>
+  </si>
+  <si>
+    <t>25,68%</t>
+  </si>
+  <si>
+    <t>38,51%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>11,25%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>64,1%</t>
+  </si>
+  <si>
+    <t>57,15%</t>
+  </si>
+  <si>
+    <t>69,67%</t>
+  </si>
+  <si>
+    <t>61,36%</t>
+  </si>
+  <si>
+    <t>53,02%</t>
+  </si>
+  <si>
+    <t>67,57%</t>
+  </si>
+  <si>
+    <t>62,92%</t>
+  </si>
+  <si>
+    <t>57,48%</t>
+  </si>
+  <si>
+    <t>67,33%</t>
+  </si>
+  <si>
+    <t>29,41%</t>
+  </si>
+  <si>
+    <t>24,14%</t>
+  </si>
+  <si>
+    <t>35,69%</t>
+  </si>
+  <si>
+    <t>34,72%</t>
+  </si>
+  <si>
+    <t>28,43%</t>
+  </si>
+  <si>
+    <t>43,15%</t>
+  </si>
+  <si>
+    <t>31,7%</t>
+  </si>
+  <si>
+    <t>27,01%</t>
+  </si>
+  <si>
+    <t>36,82%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
   </si>
   <si>
     <t>1,64%</t>
   </si>
   <si>
-    <t>3,4%</t>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
   </si>
   <si>
     <t>0,45%</t>
   </si>
   <si>
-    <t>1,62%</t>
+    <t>1,6%</t>
   </si>
   <si>
     <t>1,13%</t>
@@ -335,97 +446,10 @@
     <t>0,48%</t>
   </si>
   <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>29,41%</t>
-  </si>
-  <si>
-    <t>23,69%</t>
-  </si>
-  <si>
-    <t>35,27%</t>
-  </si>
-  <si>
-    <t>34,72%</t>
-  </si>
-  <si>
-    <t>28,66%</t>
-  </si>
-  <si>
-    <t>44,55%</t>
-  </si>
-  <si>
-    <t>31,7%</t>
-  </si>
-  <si>
-    <t>27,35%</t>
-  </si>
-  <si>
-    <t>36,99%</t>
-  </si>
-  <si>
-    <t>64,1%</t>
-  </si>
-  <si>
-    <t>58,35%</t>
-  </si>
-  <si>
-    <t>69,79%</t>
-  </si>
-  <si>
-    <t>61,36%</t>
-  </si>
-  <si>
-    <t>51,86%</t>
-  </si>
-  <si>
-    <t>67,48%</t>
-  </si>
-  <si>
-    <t>62,92%</t>
-  </si>
-  <si>
-    <t>57,61%</t>
-  </si>
-  <si>
-    <t>67,26%</t>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
   </si>
 </sst>
 </file>
@@ -436,7 +460,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -532,39 +556,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -616,7 +640,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -727,13 +751,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -742,6 +759,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -806,19 +830,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{646FC8AD-E715-495A-895D-DBCE61F897EA}">
-  <dimension ref="A1:Q27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76EEA51B-DD8F-407F-AF5A-9BBD4B8139F0}">
+  <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1209,47 +1253,41 @@
       <c r="C10" s="7">
         <v>0</v>
       </c>
-      <c r="D10" s="7">
-        <v>0</v>
-      </c>
+      <c r="D10" s="7"/>
       <c r="E10" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="H10" s="7">
-        <v>1</v>
-      </c>
-      <c r="I10" s="7">
-        <v>443</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I10" s="7"/>
       <c r="J10" s="7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="M10" s="7">
-        <v>1</v>
-      </c>
-      <c r="N10" s="7">
-        <v>443</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N10" s="7"/>
       <c r="O10" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1258,49 +1296,43 @@
         <v>12</v>
       </c>
       <c r="C11" s="7">
-        <v>2</v>
-      </c>
-      <c r="D11" s="7">
-        <v>1182</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D11" s="7"/>
       <c r="E11" s="7" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
       </c>
-      <c r="I11" s="7">
-        <v>0</v>
-      </c>
+      <c r="I11" s="7"/>
       <c r="J11" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="M11" s="7">
-        <v>2</v>
-      </c>
-      <c r="N11" s="7">
-        <v>1182</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N11" s="7"/>
       <c r="O11" s="7" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1309,49 +1341,43 @@
         <v>13</v>
       </c>
       <c r="C12" s="7">
-        <v>1</v>
-      </c>
-      <c r="D12" s="7">
-        <v>1026</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D12" s="7"/>
       <c r="E12" s="7" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="H12" s="7">
-        <v>1</v>
-      </c>
-      <c r="I12" s="7">
-        <v>1056</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" s="7"/>
       <c r="J12" s="7" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="M12" s="7">
-        <v>2</v>
-      </c>
-      <c r="N12" s="7">
-        <v>2081</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N12" s="7"/>
       <c r="O12" s="7" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1360,49 +1386,43 @@
         <v>14</v>
       </c>
       <c r="C13" s="7">
-        <v>10</v>
-      </c>
-      <c r="D13" s="7">
-        <v>9917</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D13" s="7"/>
       <c r="E13" s="7" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="H13" s="7">
-        <v>19</v>
-      </c>
-      <c r="I13" s="7">
-        <v>15668</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" s="7"/>
       <c r="J13" s="7" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="M13" s="7">
-        <v>29</v>
-      </c>
-      <c r="N13" s="7">
-        <v>25585</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N13" s="7"/>
       <c r="O13" s="7" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1411,49 +1431,43 @@
         <v>15</v>
       </c>
       <c r="C14" s="7">
-        <v>36</v>
-      </c>
-      <c r="D14" s="7">
-        <v>29252</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D14" s="7"/>
       <c r="E14" s="7" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="H14" s="7">
-        <v>24</v>
-      </c>
-      <c r="I14" s="7">
-        <v>16834</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" s="7"/>
       <c r="J14" s="7" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="M14" s="7">
-        <v>60</v>
-      </c>
-      <c r="N14" s="7">
-        <v>46086</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N14" s="7"/>
       <c r="O14" s="7" t="s">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1462,102 +1476,96 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>49</v>
-      </c>
-      <c r="D15" s="7">
-        <v>41376</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D15" s="7"/>
       <c r="E15" s="7" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="H15" s="7">
-        <v>45</v>
-      </c>
-      <c r="I15" s="7">
-        <v>34001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" s="7"/>
       <c r="J15" s="7" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="M15" s="7">
-        <v>94</v>
-      </c>
-      <c r="N15" s="7">
-        <v>75377</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N15" s="7"/>
       <c r="O15" s="7" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>5</v>
+        <v>83</v>
       </c>
       <c r="D16" s="7">
-        <v>4382</v>
+        <v>66317</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>56</v>
+        <v>19</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>57</v>
+        <v>20</v>
       </c>
       <c r="H16" s="7">
-        <v>1</v>
+        <v>59</v>
       </c>
       <c r="I16" s="7">
-        <v>476</v>
+        <v>42141</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>58</v>
+        <v>21</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="M16" s="7">
-        <v>6</v>
+        <v>142</v>
       </c>
       <c r="N16" s="7">
-        <v>4858</v>
+        <v>108458</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>62</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1566,49 +1574,49 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="D17" s="7">
-        <v>0</v>
+        <v>28634</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>63</v>
+        <v>29</v>
       </c>
       <c r="H17" s="7">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="I17" s="7">
-        <v>0</v>
+        <v>25983</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="M17" s="7">
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="N17" s="7">
-        <v>0</v>
+        <v>54617</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1617,49 +1625,49 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D18" s="7">
-        <v>10705</v>
+        <v>2259</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>68</v>
+        <v>38</v>
       </c>
       <c r="H18" s="7">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="I18" s="7">
-        <v>5973</v>
+        <v>3098</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>71</v>
+        <v>41</v>
       </c>
       <c r="M18" s="7">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="N18" s="7">
-        <v>16678</v>
+        <v>5356</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>73</v>
+        <v>43</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>74</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1668,49 +1676,49 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>75</v>
+        <v>2</v>
       </c>
       <c r="D19" s="7">
-        <v>68501</v>
+        <v>1182</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>76</v>
+        <v>46</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>77</v>
+        <v>47</v>
       </c>
       <c r="H19" s="7">
-        <v>61</v>
+        <v>0</v>
       </c>
       <c r="I19" s="7">
-        <v>54651</v>
+        <v>0</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>78</v>
+        <v>46</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="M19" s="7">
-        <v>136</v>
+        <v>2</v>
       </c>
       <c r="N19" s="7">
-        <v>123153</v>
+        <v>1182</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>81</v>
+        <v>50</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>82</v>
+        <v>46</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>83</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1719,49 +1727,49 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>166</v>
+        <v>1</v>
       </c>
       <c r="D20" s="7">
-        <v>141637</v>
+        <v>957</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>84</v>
+        <v>52</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>85</v>
+        <v>46</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>86</v>
+        <v>53</v>
       </c>
       <c r="H20" s="7">
-        <v>154</v>
+        <v>1</v>
       </c>
       <c r="I20" s="7">
-        <v>107444</v>
+        <v>443</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>87</v>
+        <v>54</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>88</v>
+        <v>46</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>89</v>
+        <v>55</v>
       </c>
       <c r="M20" s="7">
-        <v>320</v>
+        <v>2</v>
       </c>
       <c r="N20" s="7">
-        <v>249081</v>
+        <v>1400</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>90</v>
+        <v>56</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>91</v>
+        <v>46</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>92</v>
+        <v>57</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1770,102 +1778,102 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>257</v>
+        <v>119</v>
       </c>
       <c r="D21" s="7">
-        <v>225226</v>
+        <v>99348</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="H21" s="7">
-        <v>225</v>
+        <v>95</v>
       </c>
       <c r="I21" s="7">
-        <v>168545</v>
+        <v>71665</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="M21" s="7">
-        <v>482</v>
+        <v>214</v>
       </c>
       <c r="N21" s="7">
-        <v>393770</v>
+        <v>171014</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>59</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>5</v>
+        <v>119</v>
       </c>
       <c r="D22" s="7">
-        <v>4382</v>
+        <v>104571</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>93</v>
+        <v>60</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>22</v>
+        <v>61</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>94</v>
+        <v>62</v>
       </c>
       <c r="H22" s="7">
-        <v>2</v>
+        <v>119</v>
       </c>
       <c r="I22" s="7">
-        <v>920</v>
+        <v>82137</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>95</v>
+        <v>63</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>17</v>
+        <v>64</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="M22" s="7">
-        <v>7</v>
+        <v>238</v>
       </c>
       <c r="N22" s="7">
-        <v>5302</v>
+        <v>186708</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>97</v>
+        <v>66</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>98</v>
+        <v>67</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>99</v>
+        <v>68</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -1874,49 +1882,49 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="D23" s="7">
-        <v>1182</v>
+        <v>49784</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>100</v>
+        <v>69</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>17</v>
+        <v>70</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>27</v>
+        <v>71</v>
       </c>
       <c r="H23" s="7">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="I23" s="7">
-        <v>0</v>
+        <v>44336</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>17</v>
+        <v>72</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>18</v>
+        <v>73</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>101</v>
+        <v>74</v>
       </c>
       <c r="M23" s="7">
-        <v>2</v>
+        <v>104</v>
       </c>
       <c r="N23" s="7">
-        <v>1182</v>
+        <v>94120</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>102</v>
+        <v>75</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>17</v>
+        <v>76</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>103</v>
+        <v>77</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -1925,49 +1933,49 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D24" s="7">
-        <v>11731</v>
+        <v>9472</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>104</v>
+        <v>78</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>105</v>
+        <v>79</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>106</v>
+        <v>80</v>
       </c>
       <c r="H24" s="7">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="I24" s="7">
-        <v>7029</v>
+        <v>3931</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>107</v>
+        <v>81</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="M24" s="7">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="N24" s="7">
-        <v>18760</v>
+        <v>13404</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>109</v>
+        <v>83</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>110</v>
+        <v>84</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>111</v>
+        <v>85</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -1976,49 +1984,49 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="D25" s="7">
-        <v>78418</v>
+        <v>0</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>112</v>
+        <v>46</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>113</v>
+        <v>48</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>114</v>
+        <v>86</v>
       </c>
       <c r="H25" s="7">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="I25" s="7">
-        <v>70319</v>
+        <v>0</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>115</v>
+        <v>46</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>116</v>
+        <v>48</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>117</v>
+        <v>87</v>
       </c>
       <c r="M25" s="7">
-        <v>165</v>
+        <v>0</v>
       </c>
       <c r="N25" s="7">
-        <v>148737</v>
+        <v>0</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>118</v>
+        <v>46</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>119</v>
+        <v>48</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>120</v>
+        <v>88</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2027,49 +2035,49 @@
         <v>15</v>
       </c>
       <c r="C26" s="7">
-        <v>202</v>
+        <v>4</v>
       </c>
       <c r="D26" s="7">
-        <v>170888</v>
+        <v>3425</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>121</v>
+        <v>89</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>122</v>
+        <v>90</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>123</v>
+        <v>91</v>
       </c>
       <c r="H26" s="7">
-        <v>178</v>
+        <v>1</v>
       </c>
       <c r="I26" s="7">
-        <v>124278</v>
+        <v>476</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>124</v>
+        <v>92</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>125</v>
+        <v>46</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>126</v>
+        <v>93</v>
       </c>
       <c r="M26" s="7">
-        <v>380</v>
+        <v>5</v>
       </c>
       <c r="N26" s="7">
-        <v>295167</v>
+        <v>3901</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>127</v>
+        <v>94</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>128</v>
+        <v>95</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>129</v>
+        <v>96</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2078,55 +2086,369 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>187</v>
+      </c>
+      <c r="D27" s="7">
+        <v>167253</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="H27" s="7">
+        <v>175</v>
+      </c>
+      <c r="I27" s="7">
+        <v>130880</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="M27" s="7">
+        <v>362</v>
+      </c>
+      <c r="N27" s="7">
+        <v>298133</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="7">
+        <v>202</v>
+      </c>
+      <c r="D28" s="7">
+        <v>170888</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="H28" s="7">
+        <v>178</v>
+      </c>
+      <c r="I28" s="7">
+        <v>124278</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="M28" s="7">
+        <v>380</v>
+      </c>
+      <c r="N28" s="7">
+        <v>295167</v>
+      </c>
+      <c r="O28" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q28" s="7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A29" s="1"/>
+      <c r="B29" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="7">
+        <v>85</v>
+      </c>
+      <c r="D29" s="7">
+        <v>78418</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="H29" s="7">
+        <v>80</v>
+      </c>
+      <c r="I29" s="7">
+        <v>70319</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="L29" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="M29" s="7">
+        <v>165</v>
+      </c>
+      <c r="N29" s="7">
+        <v>148737</v>
+      </c>
+      <c r="O29" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q29" s="7" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A30" s="1"/>
+      <c r="B30" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="7">
+        <v>12</v>
+      </c>
+      <c r="D30" s="7">
+        <v>11731</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="H30" s="7">
+        <v>10</v>
+      </c>
+      <c r="I30" s="7">
+        <v>7029</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="L30" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="M30" s="7">
+        <v>22</v>
+      </c>
+      <c r="N30" s="7">
+        <v>18760</v>
+      </c>
+      <c r="O30" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q30" s="7" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A31" s="1"/>
+      <c r="B31" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" s="7">
+        <v>2</v>
+      </c>
+      <c r="D31" s="7">
+        <v>1182</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="H31" s="7">
+        <v>0</v>
+      </c>
+      <c r="I31" s="7">
+        <v>0</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="M31" s="7">
+        <v>2</v>
+      </c>
+      <c r="N31" s="7">
+        <v>1182</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1"/>
+      <c r="B32" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" s="7">
+        <v>5</v>
+      </c>
+      <c r="D32" s="7">
+        <v>4382</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="H32" s="7">
+        <v>2</v>
+      </c>
+      <c r="I32" s="7">
+        <v>920</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="M32" s="7">
+        <v>7</v>
+      </c>
+      <c r="N32" s="7">
+        <v>5302</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" s="7">
         <v>306</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D33" s="7">
         <v>266601</v>
       </c>
-      <c r="E27" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="H27" s="7">
+      <c r="E33" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="H33" s="7">
         <v>270</v>
       </c>
-      <c r="I27" s="7">
+      <c r="I33" s="7">
         <v>202546</v>
       </c>
-      <c r="J27" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="M27" s="7">
+      <c r="J33" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="M33" s="7">
         <v>576</v>
       </c>
-      <c r="N27" s="7">
+      <c r="N33" s="7">
         <v>469147</v>
       </c>
-      <c r="O27" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>53</v>
+      <c r="O33" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>137</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A28:A33"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>

--- a/data/trans_orig/IP07C23_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP07C23_2023-Edad-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{21C81DCA-8E09-400D-ABAD-74679251C056}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{896EA157-1448-4B52-8908-A7A9B1EF8494}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{C1E60E57-C3C4-4E58-A882-4D38EF8DC4FF}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C7A6FEEF-F3A6-4E0B-BE11-9ECAA60ED116}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="137">
   <si>
     <t>Menores según frecuencia de trato justo por parte de tus padres en 2023 (Tasa respuesta: 30,0%)</t>
   </si>
@@ -95,55 +95,55 @@
     <t>66,75%</t>
   </si>
   <si>
-    <t>58,02%</t>
-  </si>
-  <si>
-    <t>74,95%</t>
+    <t>58,31%</t>
+  </si>
+  <si>
+    <t>75,74%</t>
   </si>
   <si>
     <t>58,8%</t>
   </si>
   <si>
-    <t>48,38%</t>
-  </si>
-  <si>
-    <t>68,61%</t>
+    <t>47,59%</t>
+  </si>
+  <si>
+    <t>69,18%</t>
   </si>
   <si>
     <t>63,42%</t>
   </si>
   <si>
-    <t>56,77%</t>
-  </si>
-  <si>
-    <t>70,12%</t>
+    <t>56,78%</t>
+  </si>
+  <si>
+    <t>70,27%</t>
   </si>
   <si>
     <t>28,82%</t>
   </si>
   <si>
-    <t>20,57%</t>
-  </si>
-  <si>
-    <t>37,07%</t>
+    <t>20,45%</t>
+  </si>
+  <si>
+    <t>37,41%</t>
   </si>
   <si>
     <t>36,26%</t>
   </si>
   <si>
-    <t>26,59%</t>
-  </si>
-  <si>
-    <t>46,76%</t>
+    <t>27,13%</t>
+  </si>
+  <si>
+    <t>47,55%</t>
   </si>
   <si>
     <t>31,94%</t>
   </si>
   <si>
-    <t>25,4%</t>
-  </si>
-  <si>
-    <t>39,07%</t>
+    <t>25,58%</t>
+  </si>
+  <si>
+    <t>38,62%</t>
   </si>
   <si>
     <t>2,27%</t>
@@ -152,301 +152,298 @@
     <t>0,61%</t>
   </si>
   <si>
-    <t>6,66%</t>
+    <t>6,08%</t>
   </si>
   <si>
     <t>4,32%</t>
   </si>
   <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>10,81%</t>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
   </si>
   <si>
     <t>3,13%</t>
   </si>
   <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>62,52%</t>
+  </si>
+  <si>
+    <t>53,37%</t>
+  </si>
+  <si>
+    <t>70,39%</t>
+  </si>
+  <si>
+    <t>62,76%</t>
+  </si>
+  <si>
+    <t>49,07%</t>
+  </si>
+  <si>
+    <t>71,72%</t>
+  </si>
+  <si>
+    <t>62,63%</t>
+  </si>
+  <si>
+    <t>54,82%</t>
+  </si>
+  <si>
+    <t>68,74%</t>
+  </si>
+  <si>
+    <t>29,77%</t>
+  </si>
+  <si>
+    <t>22,87%</t>
+  </si>
+  <si>
+    <t>37,69%</t>
+  </si>
+  <si>
+    <t>33,88%</t>
+  </si>
+  <si>
+    <t>25,18%</t>
+  </si>
+  <si>
+    <t>49,26%</t>
+  </si>
+  <si>
+    <t>31,57%</t>
+  </si>
+  <si>
+    <t>39,1%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>64,1%</t>
+  </si>
+  <si>
+    <t>58,2%</t>
+  </si>
+  <si>
+    <t>70,0%</t>
+  </si>
+  <si>
+    <t>61,36%</t>
+  </si>
+  <si>
+    <t>50,51%</t>
+  </si>
+  <si>
+    <t>67,45%</t>
+  </si>
+  <si>
+    <t>62,92%</t>
+  </si>
+  <si>
+    <t>58,23%</t>
+  </si>
+  <si>
+    <t>67,51%</t>
+  </si>
+  <si>
+    <t>29,41%</t>
+  </si>
+  <si>
+    <t>23,99%</t>
+  </si>
+  <si>
+    <t>35,33%</t>
+  </si>
+  <si>
+    <t>34,72%</t>
+  </si>
+  <si>
+    <t>28,62%</t>
+  </si>
+  <si>
+    <t>46,19%</t>
+  </si>
+  <si>
+    <t>31,7%</t>
+  </si>
+  <si>
+    <t>27,32%</t>
+  </si>
+  <si>
+    <t>36,67%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
     <t>1,41%</t>
   </si>
   <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>12-15</t>
-  </si>
-  <si>
-    <t>62,52%</t>
-  </si>
-  <si>
-    <t>54,53%</t>
-  </si>
-  <si>
-    <t>70,34%</t>
-  </si>
-  <si>
-    <t>62,76%</t>
-  </si>
-  <si>
-    <t>50,75%</t>
-  </si>
-  <si>
-    <t>71,53%</t>
-  </si>
-  <si>
-    <t>62,63%</t>
-  </si>
-  <si>
-    <t>55,67%</t>
-  </si>
-  <si>
-    <t>68,81%</t>
-  </si>
-  <si>
-    <t>29,77%</t>
-  </si>
-  <si>
-    <t>23,0%</t>
-  </si>
-  <si>
-    <t>37,47%</t>
-  </si>
-  <si>
-    <t>33,88%</t>
-  </si>
-  <si>
-    <t>25,03%</t>
-  </si>
-  <si>
-    <t>46,45%</t>
-  </si>
-  <si>
-    <t>31,57%</t>
-  </si>
-  <si>
-    <t>25,68%</t>
-  </si>
-  <si>
-    <t>38,51%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>11,25%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>64,1%</t>
-  </si>
-  <si>
-    <t>57,15%</t>
-  </si>
-  <si>
-    <t>69,67%</t>
-  </si>
-  <si>
-    <t>61,36%</t>
-  </si>
-  <si>
-    <t>53,02%</t>
-  </si>
-  <si>
-    <t>67,57%</t>
-  </si>
-  <si>
-    <t>62,92%</t>
-  </si>
-  <si>
-    <t>57,48%</t>
-  </si>
-  <si>
-    <t>67,33%</t>
-  </si>
-  <si>
-    <t>29,41%</t>
-  </si>
-  <si>
-    <t>24,14%</t>
-  </si>
-  <si>
-    <t>35,69%</t>
-  </si>
-  <si>
-    <t>34,72%</t>
-  </si>
-  <si>
-    <t>28,43%</t>
-  </si>
-  <si>
-    <t>43,15%</t>
-  </si>
-  <si>
-    <t>31,7%</t>
-  </si>
-  <si>
-    <t>27,01%</t>
-  </si>
-  <si>
-    <t>36,82%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
     <t>1,13%</t>
   </si>
   <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -861,7 +858,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76EEA51B-DD8F-407F-AF5A-9BBD4B8139F0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F664EC3E-011A-495B-A5B7-72643CB0830C}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1921,10 +1918,10 @@
         <v>75</v>
       </c>
       <c r="P23" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -1939,13 +1936,13 @@
         <v>9472</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="H24" s="7">
         <v>6</v>
@@ -1954,10 +1951,10 @@
         <v>3931</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>45</v>
       </c>
       <c r="L24" s="7" t="s">
         <v>82</v>
@@ -1969,13 +1966,13 @@
         <v>13404</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -1996,7 +1993,7 @@
         <v>48</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -2011,7 +2008,7 @@
         <v>48</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M25" s="7">
         <v>0</v>
@@ -2026,7 +2023,7 @@
         <v>48</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2041,13 +2038,13 @@
         <v>3425</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H26" s="7">
         <v>1</v>
@@ -2056,13 +2053,13 @@
         <v>476</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>46</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M26" s="7">
         <v>5</v>
@@ -2071,13 +2068,13 @@
         <v>3901</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2145,13 +2142,13 @@
         <v>170888</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F28" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="G28" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="H28" s="7">
         <v>178</v>
@@ -2160,13 +2157,13 @@
         <v>124278</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K28" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="L28" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="M28" s="7">
         <v>380</v>
@@ -2175,13 +2172,13 @@
         <v>295167</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="P28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2196,13 +2193,13 @@
         <v>78418</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="H29" s="7">
         <v>80</v>
@@ -2211,13 +2208,13 @@
         <v>70319</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="M29" s="7">
         <v>165</v>
@@ -2226,13 +2223,13 @@
         <v>148737</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2247,13 +2244,13 @@
         <v>11731</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="G30" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="H30" s="7">
         <v>10</v>
@@ -2262,13 +2259,13 @@
         <v>7029</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>120</v>
       </c>
       <c r="M30" s="7">
         <v>22</v>
@@ -2277,13 +2274,13 @@
         <v>18760</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="P30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2298,13 +2295,13 @@
         <v>1182</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F31" s="7" t="s">
         <v>46</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H31" s="7">
         <v>0</v>
@@ -2319,7 +2316,7 @@
         <v>48</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="M31" s="7">
         <v>2</v>
@@ -2328,13 +2325,13 @@
         <v>1182</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="P31" s="7" t="s">
         <v>46</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2349,13 +2346,13 @@
         <v>4382</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="F32" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="F32" s="7" t="s">
+      <c r="G32" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="H32" s="7">
         <v>2</v>
@@ -2364,13 +2361,13 @@
         <v>920</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K32" s="7" t="s">
         <v>46</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="M32" s="7">
         <v>7</v>
@@ -2379,13 +2376,13 @@
         <v>5302</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="P32" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="P32" s="7" t="s">
+      <c r="Q32" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2441,7 +2438,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP07C23_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP07C23_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{896EA157-1448-4B52-8908-A7A9B1EF8494}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7246D472-2CAE-403C-9AB7-F705B3271B4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C7A6FEEF-F3A6-4E0B-BE11-9ECAA60ED116}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{0E68A3EB-07D9-4D51-BA36-4C1D5F2BC935}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,15 +36,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="137">
-  <si>
-    <t>Menores según frecuencia de trato justo por parte de tus padres en 2023 (Tasa respuesta: 30,0%)</t>
-  </si>
-  <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="147">
+  <si>
+    <t>Menores según frecuencia de trato justo por parte de tus padres en 2023 (Tasa respuesta: 30,05%)</t>
+  </si>
+  <si>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -92,124 +92,136 @@
     <t>8-11</t>
   </si>
   <si>
-    <t>66,75%</t>
-  </si>
-  <si>
-    <t>58,31%</t>
-  </si>
-  <si>
-    <t>75,74%</t>
-  </si>
-  <si>
-    <t>58,8%</t>
-  </si>
-  <si>
-    <t>47,59%</t>
-  </si>
-  <si>
-    <t>69,18%</t>
-  </si>
-  <si>
-    <t>63,42%</t>
-  </si>
-  <si>
-    <t>56,78%</t>
-  </si>
-  <si>
-    <t>70,27%</t>
-  </si>
-  <si>
-    <t>28,82%</t>
-  </si>
-  <si>
-    <t>20,45%</t>
-  </si>
-  <si>
-    <t>37,41%</t>
-  </si>
-  <si>
-    <t>36,26%</t>
-  </si>
-  <si>
-    <t>27,13%</t>
-  </si>
-  <si>
-    <t>47,55%</t>
-  </si>
-  <si>
-    <t>31,94%</t>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>12,66%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>21,04%</t>
+  </si>
+  <si>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>19,83%</t>
+  </si>
+  <si>
+    <t>12,58%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>17,73%</t>
+  </si>
+  <si>
+    <t>35,0%</t>
+  </si>
+  <si>
+    <t>24,83%</t>
+  </si>
+  <si>
+    <t>45,43%</t>
   </si>
   <si>
     <t>25,58%</t>
   </si>
   <si>
-    <t>38,62%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
+    <t>18,88%</t>
+  </si>
+  <si>
+    <t>34,23%</t>
+  </si>
+  <si>
+    <t>29,41%</t>
+  </si>
+  <si>
+    <t>23,26%</t>
+  </si>
+  <si>
+    <t>36,23%</t>
+  </si>
+  <si>
+    <t>48,81%</t>
+  </si>
+  <si>
+    <t>38,31%</t>
+  </si>
+  <si>
+    <t>60,04%</t>
+  </si>
+  <si>
+    <t>57,13%</t>
+  </si>
+  <si>
+    <t>48,17%</t>
+  </si>
+  <si>
+    <t>65,6%</t>
+  </si>
+  <si>
+    <t>53,76%</t>
+  </si>
+  <si>
+    <t>46,87%</t>
+  </si>
+  <si>
+    <t>60,59%</t>
   </si>
   <si>
     <t>100%</t>
@@ -218,232 +230,250 @@
     <t>12-15</t>
   </si>
   <si>
-    <t>62,52%</t>
-  </si>
-  <si>
-    <t>53,37%</t>
-  </si>
-  <si>
-    <t>70,39%</t>
-  </si>
-  <si>
-    <t>62,76%</t>
-  </si>
-  <si>
-    <t>49,07%</t>
-  </si>
-  <si>
-    <t>71,72%</t>
-  </si>
-  <si>
-    <t>62,63%</t>
-  </si>
-  <si>
-    <t>54,82%</t>
-  </si>
-  <si>
-    <t>68,74%</t>
-  </si>
-  <si>
-    <t>29,77%</t>
-  </si>
-  <si>
-    <t>22,87%</t>
-  </si>
-  <si>
-    <t>37,69%</t>
-  </si>
-  <si>
-    <t>33,88%</t>
-  </si>
-  <si>
-    <t>25,18%</t>
-  </si>
-  <si>
-    <t>49,26%</t>
-  </si>
-  <si>
-    <t>31,57%</t>
-  </si>
-  <si>
-    <t>39,1%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
   </si>
   <si>
     <t>0,36%</t>
   </si>
   <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>13,23%</t>
+  </si>
+  <si>
+    <t>15,47%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>26,26%</t>
+  </si>
+  <si>
+    <t>12,11%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>18,25%</t>
+  </si>
+  <si>
+    <t>27,47%</t>
+  </si>
+  <si>
+    <t>13,99%</t>
+  </si>
+  <si>
+    <t>36,53%</t>
+  </si>
+  <si>
+    <t>29,33%</t>
+  </si>
+  <si>
+    <t>21,72%</t>
+  </si>
+  <si>
+    <t>36,83%</t>
+  </si>
+  <si>
+    <t>28,49%</t>
+  </si>
+  <si>
+    <t>20,76%</t>
+  </si>
+  <si>
+    <t>34,55%</t>
+  </si>
+  <si>
+    <t>62,7%</t>
+  </si>
+  <si>
+    <t>51,09%</t>
+  </si>
+  <si>
+    <t>81,56%</t>
+  </si>
+  <si>
+    <t>53,69%</t>
+  </si>
+  <si>
+    <t>44,53%</t>
+  </si>
+  <si>
+    <t>64,11%</t>
+  </si>
+  <si>
+    <t>57,76%</t>
+  </si>
+  <si>
+    <t>50,43%</t>
+  </si>
+  <si>
+    <t>69,09%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
   </si>
   <si>
     <t>0,48%</t>
   </si>
   <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>64,1%</t>
-  </si>
-  <si>
-    <t>58,2%</t>
-  </si>
-  <si>
-    <t>70,0%</t>
-  </si>
-  <si>
-    <t>61,36%</t>
-  </si>
-  <si>
-    <t>50,51%</t>
-  </si>
-  <si>
-    <t>67,45%</t>
-  </si>
-  <si>
-    <t>62,92%</t>
-  </si>
-  <si>
-    <t>58,23%</t>
-  </si>
-  <si>
-    <t>67,51%</t>
-  </si>
-  <si>
-    <t>29,41%</t>
-  </si>
-  <si>
-    <t>23,99%</t>
-  </si>
-  <si>
-    <t>35,33%</t>
-  </si>
-  <si>
-    <t>34,72%</t>
-  </si>
-  <si>
-    <t>28,62%</t>
-  </si>
-  <si>
-    <t>46,19%</t>
-  </si>
-  <si>
-    <t>31,7%</t>
-  </si>
-  <si>
-    <t>27,32%</t>
-  </si>
-  <si>
-    <t>36,67%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>13,78%</t>
+  </si>
+  <si>
+    <t>14,4%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>21,12%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>16,78%</t>
+  </si>
+  <si>
+    <t>29,9%</t>
+  </si>
+  <si>
+    <t>19,61%</t>
+  </si>
+  <si>
+    <t>36,68%</t>
+  </si>
+  <si>
+    <t>27,96%</t>
+  </si>
+  <si>
+    <t>22,56%</t>
+  </si>
+  <si>
+    <t>33,94%</t>
+  </si>
+  <si>
+    <t>28,81%</t>
+  </si>
+  <si>
+    <t>33,21%</t>
+  </si>
+  <si>
+    <t>58,22%</t>
+  </si>
+  <si>
+    <t>50,24%</t>
+  </si>
+  <si>
+    <t>73,92%</t>
+  </si>
+  <si>
+    <t>54,95%</t>
+  </si>
+  <si>
+    <t>48,35%</t>
+  </si>
+  <si>
+    <t>62,56%</t>
+  </si>
+  <si>
+    <t>56,37%</t>
+  </si>
+  <si>
+    <t>50,65%</t>
+  </si>
+  <si>
+    <t>63,97%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -858,7 +888,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F664EC3E-011A-495B-A5B7-72643CB0830C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C00B9C6A-4318-4048-95BE-DD961E243DA9}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1520,10 +1550,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>83</v>
+        <v>3</v>
       </c>
       <c r="D16" s="7">
-        <v>66317</v>
+        <v>2393</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>18</v>
@@ -1535,10 +1565,10 @@
         <v>20</v>
       </c>
       <c r="H16" s="7">
-        <v>59</v>
+        <v>1</v>
       </c>
       <c r="I16" s="7">
-        <v>42141</v>
+        <v>908</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>21</v>
@@ -1550,10 +1580,10 @@
         <v>23</v>
       </c>
       <c r="M16" s="7">
-        <v>142</v>
+        <v>4</v>
       </c>
       <c r="N16" s="7">
-        <v>108458</v>
+        <v>3301</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>24</v>
@@ -1571,49 +1601,49 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
+        <v>0</v>
+      </c>
+      <c r="D17" s="7">
+        <v>0</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H17" s="7">
+        <v>4</v>
+      </c>
+      <c r="I17" s="7">
+        <v>3828</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D17" s="7">
-        <v>28634</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="H17" s="7">
+      <c r="L17" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="I17" s="7">
-        <v>25983</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="L17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>4</v>
+      </c>
+      <c r="N17" s="7">
+        <v>3828</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="M17" s="7">
-        <v>61</v>
-      </c>
-      <c r="N17" s="7">
-        <v>54617</v>
-      </c>
-      <c r="O17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>34</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1622,49 +1652,49 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D18" s="7">
-        <v>2259</v>
+        <v>8599</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="G18" s="7" t="s">
+      <c r="H18" s="7">
+        <v>15</v>
+      </c>
+      <c r="I18" s="7">
+        <v>12441</v>
+      </c>
+      <c r="J18" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="H18" s="7">
-        <v>4</v>
-      </c>
-      <c r="I18" s="7">
-        <v>3098</v>
-      </c>
-      <c r="J18" s="7" t="s">
+      <c r="K18" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="L18" s="7" t="s">
+      <c r="M18" s="7">
+        <v>27</v>
+      </c>
+      <c r="N18" s="7">
+        <v>21040</v>
+      </c>
+      <c r="O18" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="M18" s="7">
-        <v>7</v>
-      </c>
-      <c r="N18" s="7">
-        <v>5356</v>
-      </c>
-      <c r="O18" s="7" t="s">
+      <c r="P18" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>43</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1673,28 +1703,28 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="D19" s="7">
-        <v>1182</v>
+        <v>23776</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="H19" s="7">
+        <v>30</v>
+      </c>
+      <c r="I19" s="7">
+        <v>25417</v>
+      </c>
+      <c r="J19" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="H19" s="7">
-        <v>0</v>
-      </c>
-      <c r="I19" s="7">
-        <v>0</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>48</v>
@@ -1703,19 +1733,19 @@
         <v>49</v>
       </c>
       <c r="M19" s="7">
-        <v>2</v>
+        <v>62</v>
       </c>
       <c r="N19" s="7">
-        <v>1182</v>
+        <v>49193</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>50</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1724,49 +1754,49 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="D20" s="7">
-        <v>957</v>
+        <v>33157</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H20" s="7">
-        <v>1</v>
+        <v>69</v>
       </c>
       <c r="I20" s="7">
-        <v>443</v>
+        <v>56771</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="M20" s="7">
-        <v>2</v>
+        <v>117</v>
       </c>
       <c r="N20" s="7">
-        <v>1400</v>
+        <v>89928</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1775,102 +1805,102 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
+        <v>95</v>
+      </c>
+      <c r="D21" s="7">
+        <v>67925</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="H21" s="7">
         <v>119</v>
       </c>
-      <c r="D21" s="7">
-        <v>99348</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="H21" s="7">
-        <v>95</v>
-      </c>
       <c r="I21" s="7">
-        <v>71665</v>
+        <v>99365</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="M21" s="7">
         <v>214</v>
       </c>
       <c r="N21" s="7">
-        <v>171014</v>
+        <v>167290</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>119</v>
+        <v>2</v>
       </c>
       <c r="D22" s="7">
-        <v>104571</v>
+        <v>1564</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>61</v>
+        <v>22</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="H22" s="7">
-        <v>119</v>
+        <v>4</v>
       </c>
       <c r="I22" s="7">
-        <v>82137</v>
+        <v>1789</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="M22" s="7">
-        <v>238</v>
+        <v>6</v>
       </c>
       <c r="N22" s="7">
-        <v>186708</v>
+        <v>3352</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -1879,49 +1909,49 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
-        <v>55</v>
+        <v>1</v>
       </c>
       <c r="D23" s="7">
-        <v>49784</v>
+        <v>1013</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>70</v>
+        <v>22</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H23" s="7">
-        <v>49</v>
+        <v>1</v>
       </c>
       <c r="I23" s="7">
-        <v>44336</v>
+        <v>808</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>73</v>
+        <v>22</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M23" s="7">
-        <v>104</v>
+        <v>2</v>
       </c>
       <c r="N23" s="7">
-        <v>94120</v>
+        <v>1820</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -1930,49 +1960,49 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D24" s="7">
-        <v>9472</v>
+        <v>11435</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H24" s="7">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="I24" s="7">
-        <v>3931</v>
+        <v>26736</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M24" s="7">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="N24" s="7">
-        <v>13404</v>
+        <v>38171</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>53</v>
+        <v>84</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -1981,49 +2011,49 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="D25" s="7">
-        <v>0</v>
+        <v>39162</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>46</v>
+        <v>87</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="H25" s="7">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="I25" s="7">
-        <v>0</v>
+        <v>50678</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>46</v>
+        <v>90</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>48</v>
+        <v>91</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="M25" s="7">
-        <v>0</v>
+        <v>121</v>
       </c>
       <c r="N25" s="7">
-        <v>0</v>
+        <v>89840</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>46</v>
+        <v>93</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>48</v>
+        <v>94</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2032,49 +2062,49 @@
         <v>15</v>
       </c>
       <c r="C26" s="7">
-        <v>4</v>
+        <v>97</v>
       </c>
       <c r="D26" s="7">
-        <v>3425</v>
+        <v>89373</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="H26" s="7">
-        <v>1</v>
+        <v>98</v>
       </c>
       <c r="I26" s="7">
-        <v>476</v>
+        <v>92773</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>46</v>
+        <v>100</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="M26" s="7">
-        <v>5</v>
+        <v>195</v>
       </c>
       <c r="N26" s="7">
-        <v>3901</v>
+        <v>182146</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2083,49 +2113,49 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="D27" s="7">
-        <v>167253</v>
+        <v>142547</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="H27" s="7">
-        <v>175</v>
+        <v>188</v>
       </c>
       <c r="I27" s="7">
-        <v>130880</v>
+        <v>172783</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="M27" s="7">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="N27" s="7">
-        <v>298133</v>
+        <v>315329</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2136,49 +2166,49 @@
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>202</v>
+        <v>5</v>
       </c>
       <c r="D28" s="7">
-        <v>170888</v>
+        <v>3957</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="H28" s="7">
-        <v>178</v>
+        <v>5</v>
       </c>
       <c r="I28" s="7">
-        <v>124278</v>
+        <v>2697</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="M28" s="7">
-        <v>380</v>
+        <v>10</v>
       </c>
       <c r="N28" s="7">
-        <v>295167</v>
+        <v>6653</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2187,49 +2217,49 @@
         <v>12</v>
       </c>
       <c r="C29" s="7">
-        <v>85</v>
+        <v>1</v>
       </c>
       <c r="D29" s="7">
-        <v>78418</v>
+        <v>1013</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>106</v>
+        <v>22</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="H29" s="7">
-        <v>80</v>
+        <v>5</v>
       </c>
       <c r="I29" s="7">
-        <v>70319</v>
+        <v>4636</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>109</v>
+        <v>76</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="M29" s="7">
-        <v>165</v>
+        <v>6</v>
       </c>
       <c r="N29" s="7">
-        <v>148737</v>
+        <v>5648</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>112</v>
+        <v>74</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2238,49 +2268,49 @@
         <v>13</v>
       </c>
       <c r="C30" s="7">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="D30" s="7">
-        <v>11731</v>
+        <v>20034</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="H30" s="7">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="I30" s="7">
-        <v>7029</v>
+        <v>39177</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="M30" s="7">
-        <v>22</v>
+        <v>66</v>
       </c>
       <c r="N30" s="7">
-        <v>18760</v>
+        <v>59211</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2289,49 +2319,49 @@
         <v>14</v>
       </c>
       <c r="C31" s="7">
-        <v>2</v>
+        <v>90</v>
       </c>
       <c r="D31" s="7">
-        <v>1182</v>
+        <v>62938</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>46</v>
+        <v>130</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="H31" s="7">
-        <v>0</v>
+        <v>93</v>
       </c>
       <c r="I31" s="7">
-        <v>0</v>
+        <v>76095</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>46</v>
+        <v>132</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>48</v>
+        <v>133</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="M31" s="7">
-        <v>2</v>
+        <v>183</v>
       </c>
       <c r="N31" s="7">
-        <v>1182</v>
+        <v>139033</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2340,49 +2370,49 @@
         <v>15</v>
       </c>
       <c r="C32" s="7">
-        <v>5</v>
+        <v>145</v>
       </c>
       <c r="D32" s="7">
-        <v>4382</v>
+        <v>122530</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="H32" s="7">
-        <v>2</v>
+        <v>167</v>
       </c>
       <c r="I32" s="7">
-        <v>920</v>
+        <v>149543</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>46</v>
+        <v>141</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="M32" s="7">
-        <v>7</v>
+        <v>312</v>
       </c>
       <c r="N32" s="7">
-        <v>5302</v>
+        <v>272074</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2391,54 +2421,54 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
-        <v>306</v>
+        <v>270</v>
       </c>
       <c r="D33" s="7">
-        <v>266601</v>
+        <v>210472</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="H33" s="7">
-        <v>270</v>
+        <v>307</v>
       </c>
       <c r="I33" s="7">
-        <v>202546</v>
+        <v>272147</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="M33" s="7">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="N33" s="7">
-        <v>469147</v>
+        <v>482619</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>
